--- a/SWE.xlsx
+++ b/SWE.xlsx
@@ -647,340 +647,340 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>AIK,W L W W L D W D L W W D W W W W W D W D L W L W L L W</t>
-  </si>
-  <si>
-    <t>Degerfors,L L W L W D W D W L L L D L W L L L L L W D W W L L L</t>
-  </si>
-  <si>
-    <t>Djurgarden,W W W W L W D D W D W W W L W D L W D W W L L W L W W</t>
-  </si>
-  <si>
-    <t>Elfsborg,L W W L D W L L W W W W D W W D W W L L L W W W W L D</t>
-  </si>
-  <si>
-    <t>Goteborg,D W L D D D D D L W W L L D W L L W L L L L W W W W L</t>
-  </si>
-  <si>
-    <t>Hacken,L L L D D L D W W W W D L W L L W L D D D W W L D L W</t>
-  </si>
-  <si>
-    <t>Halmstad,W L L D L D W D D D D W L D D W L L L D D D L W D W L</t>
-  </si>
-  <si>
-    <t>Hammarby,L W L D W W D L D W W W D D L D W L W W D L W W W L W</t>
-  </si>
-  <si>
-    <t>Kalmar,D W W D D D L W D L L L W W D W L W W D W W L L D W W</t>
-  </si>
-  <si>
-    <t>Malmo FF,W W D L W D W W W L W W W D L W L D D W W L W D W W W</t>
-  </si>
-  <si>
-    <t>Mjallby,D L L W W D D D L L L L L D L D W D D D W W W L D W L</t>
-  </si>
-  <si>
-    <t>Norrkoping,D L W W W D L L W W L L W L W L W D W W W W L L D W L</t>
-  </si>
-  <si>
-    <t>Orebro,D L L L W W L L L L L D W D L D L L L W L L L L D L L</t>
-  </si>
-  <si>
-    <t>Ostersunds,D W D L L L L W L L L L D L L L L L W L L D L L D L L</t>
-  </si>
-  <si>
-    <t>Sirius,D W W D L L D L W L L W L D L D W W W L D L W L L L W</t>
-  </si>
-  <si>
-    <t>Varbergs,D L L W L L W L D L D W D D W W W W L D L D L D D W D</t>
-  </si>
-  <si>
-    <t>AIK,2 0 2 1 0 1 2 2 1 2 2 1 1 4 1 2 2 0 3 1 1 1 0 1 0 0 3,(36)</t>
-  </si>
-  <si>
-    <t>Degerfors,0 0 3 0 2 1 3 0 3 1 0 0 1 0 3 0 0 1 1 2 2 0 2 2 1 0 0,(28)</t>
-  </si>
-  <si>
-    <t>Djurgarden,2 1 3 3 0 2 2 0 3 0 5 1 2 1 1 0 0 4 1 3 3 0 0 3 0 1 1,(42)</t>
-  </si>
-  <si>
-    <t>Elfsborg,0 3 1 0 2 2 2 1 1 1 2 3 1 3 2 2 3 4 1 0 0 1 3 3 2 2 0,(45)</t>
-  </si>
-  <si>
-    <t>Goteborg,0 2 2 1 1 0 2 0 0 3 3 0 1 0 3 1 2 2 1 0 0 0 2 3 3 1 0,(33)</t>
-  </si>
-  <si>
-    <t>Hacken,0 1 1 1 1 2 1 3 2 3 1 1 1 5 0 1 3 2 0 1 1 2 5 2 1 1 2,(44)</t>
-  </si>
-  <si>
-    <t>Halmstad,1 0 1 1 0 1 3 0 1 0 1 1 0 0 1 2 0 0 0 0 1 1 1 3 1 1 0,(21)</t>
-  </si>
-  <si>
-    <t>Hammarby,2 2 0 1 3 3 2 1 1 5 2 2 1 0 0 2 2 1 1 3 1 1 1 4 1 0 3,(45)</t>
-  </si>
-  <si>
-    <t>Kalmar,0 1 1 1 2 0 1 2 1 2 0 0 1 2 1 1 0 4 1 1 2 3 0 2 2 4 1,(36)</t>
-  </si>
-  <si>
-    <t>Malmo FF,3 2 1 1 3 1 3 2 2 2 4 5 2 0 2 3 1 1 1 1 5 0 3 1 1 3 2,(55)</t>
-  </si>
-  <si>
-    <t>Mjallby,0 0 0 1 1 1 1 2 1 0 2 0 0 2 0 0 2 0 0 0 4 1 4 1 2 2 2,(29)</t>
-  </si>
-  <si>
-    <t>Norrkoping,1 0 2 3 2 1 1 0 3 1 0 1 2 1 2 1 3 1 3 4 2 3 0 0 2 3 0,(42)</t>
-  </si>
-  <si>
-    <t>Orebro,0 0 0 0 1 3 0 1 0 1 0 1 2 2 0 1 0 0 0 2 1 1 0 1 1 0 2,(20)</t>
-  </si>
-  <si>
-    <t>Ostersunds,0 5 1 1 0 0 1 3 1 2 0 0 1 0 1 0 0 0 3 0 0 1 0 3 1 0 0,(24)</t>
-  </si>
-  <si>
-    <t>Sirius,1 1 2 1 2 0 2 0 2 0 1 2 1 0 0 1 1 1 2 2 1 1 2 0 0 2 3,(31)</t>
-  </si>
-  <si>
-    <t>Varbergs,0 1 1 2 2 1 2 1 1 1 1 2 1 0 1 2 1 3 0 1 1 0 1 1 2 3 0,(32)</t>
-  </si>
-  <si>
-    <t>AIK,0 2 0 0 2 1 1 2 2 1 0 1 0 1 0 1 0 0 1 1 2 0 1 0 1 1 0,(21)</t>
-  </si>
-  <si>
-    <t>Degerfors,2 1 2 1 0 1 0 0 1 5 5 2 1 3 0 3 2 4 2 3 1 0 1 1 2 1 2,(46)</t>
-  </si>
-  <si>
-    <t>Djurgarden,0 0 1 1 2 0 2 0 0 0 1 0 1 4 0 0 1 1 1 2 0 1 3 2 3 0 0,(26)</t>
-  </si>
-  <si>
-    <t>Elfsborg,2 1 0 1 2 0 3 2 0 0 1 0 1 0 0 2 0 2 3 1 4 0 0 0 1 3 0,(29)</t>
-  </si>
-  <si>
-    <t>Goteborg,0 0 3 1 1 0 2 0 1 2 2 2 2 0 2 2 3 0 3 3 2 1 0 1 0 0 2,(35)</t>
-  </si>
-  <si>
-    <t>Hacken,1 2 2 1 1 3 1 1 1 2 0 1 2 0 3 2 2 4 0 1 1 1 0 3 1 4 0,(40)</t>
-  </si>
-  <si>
-    <t>Halmstad,0 1 2 1 1 1 2 0 1 0 1 0 1 0 1 1 1 2 1 0 1 1 2 2 1 0 1,(25)</t>
-  </si>
-  <si>
-    <t>Hammarby,3 0 2 1 2 1 2 2 1 1 0 1 1 0 2 2 1 4 0 0 1 3 0 3 0 2 2,(37)</t>
-  </si>
-  <si>
-    <t>Kalmar,0 0 0 1 2 0 3 1 1 3 2 1 0 1 1 0 3 1 0 1 0 1 4 3 2 1 0,(32)</t>
-  </si>
-  <si>
-    <t>Malmo FF,2 1 1 3 2 1 1 1 1 3 0 0 0 0 3 0 2 1 1 0 1 1 0 1 0 2 0,(28)</t>
-  </si>
-  <si>
-    <t>Mjallby,0 2 1 0 0 1 1 2 2 1 3 2 1 2 1 0 0 0 0 0 0 0 0 3 2 0 3,(27)</t>
-  </si>
-  <si>
-    <t>Norrkoping,1 1 1 0 0 1 2 1 2 0 1 2 1 2 1 2 0 1 0 2 1 1 5 1 2 2 1,(34)</t>
-  </si>
-  <si>
-    <t>Orebro,0 5 1 3 0 2 3 2 3 2 2 1 1 2 1 1 2 3 3 0 5 2 2 2 1 1 3,(53)</t>
-  </si>
-  <si>
-    <t>Ostersunds,0 0 1 2 1 2 2 0 3 3 3 1 1 5 2 1 3 1 1 2 3 1 3 4 1 3 3,(52)</t>
-  </si>
-  <si>
-    <t>Sirius,1 0 1 1 3 2 2 3 1 4 5 0 2 0 1 1 0 0 1 4 1 3 1 3 1 3 2,(46)</t>
-  </si>
-  <si>
-    <t>Varbergs,0 3 3 1 3 3 1 3 1 2 1 0 1 0 0 1 0 0 1 1 2 0 2 1 2 0 0,(32)</t>
-  </si>
-  <si>
-    <t>AIK,2 2 2 1 2 2 3 4 3 3 2 2 1 5 1 3 2 0 4 2 3 1 1 1 1 1 3,(57)</t>
-  </si>
-  <si>
-    <t>Degerfors,2 1 5 1 2 2 3 0 4 6 5 2 2 3 3 3 2 5 3 5 3 0 3 3 3 1 2,(74)</t>
-  </si>
-  <si>
-    <t>Djurgarden,2 1 4 4 2 2 4 0 3 0 6 1 3 5 1 0 1 5 2 5 3 1 3 5 3 1 1,(68)</t>
-  </si>
-  <si>
-    <t>Elfsborg,2 4 1 1 4 2 5 3 1 1 3 3 2 3 2 4 3 6 4 1 4 1 3 3 3 5 0,(74)</t>
-  </si>
-  <si>
-    <t>Goteborg,0 2 5 2 2 0 4 0 1 5 5 2 3 0 5 3 5 2 4 3 2 1 2 4 3 1 2,(68)</t>
-  </si>
-  <si>
-    <t>Hacken,1 3 3 2 2 5 2 4 3 5 1 2 3 5 3 3 5 6 0 2 2 3 5 5 2 5 2,(84)</t>
-  </si>
-  <si>
-    <t>Halmstad,1 1 3 2 1 2 5 0 2 0 2 1 1 0 2 3 1 2 1 0 2 2 3 5 2 1 1,(46)</t>
-  </si>
-  <si>
-    <t>Hammarby,5 2 2 2 5 4 4 3 2 6 2 3 2 0 2 4 3 5 1 3 2 4 1 7 1 2 5,(82)</t>
-  </si>
-  <si>
-    <t>Kalmar,0 1 1 2 4 0 4 3 2 5 2 1 1 3 2 1 3 5 1 2 2 4 4 5 4 5 1,(68)</t>
-  </si>
-  <si>
-    <t>Malmo FF,5 3 2 4 5 2 4 3 3 5 4 5 2 0 5 3 3 2 2 1 6 1 3 2 1 5 2,(83)</t>
-  </si>
-  <si>
-    <t>Mjallby,0 2 1 1 1 2 2 4 3 1 5 2 1 4 1 0 2 0 0 0 4 1 4 4 4 2 5,(56)</t>
-  </si>
-  <si>
-    <t>Norrkoping,2 1 3 3 2 2 3 1 5 1 1 3 3 3 3 3 3 2 3 6 3 4 5 1 4 5 1,(76)</t>
-  </si>
-  <si>
-    <t>Orebro,0 5 1 3 1 5 3 3 3 3 2 2 3 4 1 2 2 3 3 2 6 3 2 3 2 1 5,(73)</t>
-  </si>
-  <si>
-    <t>Ostersunds,0 5 2 3 1 2 3 3 4 5 3 1 2 5 3 1 3 1 4 2 3 2 3 7 2 3 3,(76)</t>
-  </si>
-  <si>
-    <t>Sirius,2 1 3 2 5 2 4 3 3 4 6 2 3 0 1 2 1 1 3 6 2 4 3 3 1 5 5,(77)</t>
-  </si>
-  <si>
-    <t>Varbergs,0 4 4 3 5 4 3 4 2 3 2 2 2 0 1 3 1 3 1 2 3 0 3 2 4 3 0,(64)</t>
-  </si>
-  <si>
-    <t>AIK,2-0 2-0 2-0 1-0 2-0 1-1 1-2 2-2 2-1 2-1 2-0 1-1 1-0 1-4 0-1 2-1 2-0 0-0 3-1 1-1 2-1 1-0 1-0 1-0 1-0 1-0 3-0</t>
-  </si>
-  <si>
-    <t>Degerfors,2-0 0-1 2-3 1-0 2-0 1-1 3-0 0-0 3-1 5-1 0-5 2-0 1-1 3-0 3-0 3-0 0-2 4-1 1-2 3-2 2-1 0-0 2-1 1-2 1-2 0-1 2-0</t>
-  </si>
-  <si>
-    <t>Djurgarden,0-2 1-0 1-3 3-1 2-0 2-0 2-2 0-0 3-0 0-0 5-1 0-1 2-1 1-4 0-1 0-0 1-0 4-1 1-1 3-2 0-3 1-0 0-3 3-2 3-0 0-1 1-0</t>
-  </si>
-  <si>
-    <t>Elfsborg,0-2 1-3 1-0 1-0 2-2 0-2 2-3 2-1 1-0 0-1 2-1 3-0 1-1 3-0 0-2 2-2 0-3 4-2 3-1 0-1 4-0 1-0 0-3 3-0 1-2 3-2 0-0</t>
-  </si>
-  <si>
-    <t>Goteborg,0-0 2-0 2-3 1-1 1-1 0-0 2-2 0-0 0-1 2-3 3-2 2-0 1-2 0-0 2-3 1-2 3-2 2-0 3-1 3-0 0-2 1-0 2-0 1-3 3-0 0-1 0-2</t>
-  </si>
-  <si>
-    <t>Hacken,1-0 1-2 1-2 1-1 1-1 2-3 1-1 3-1 2-1 2-3 0-1 1-1 2-1 5-0 3-0 2-1 3-2 4-2 0-0 1-1 1-1 1-2 5-0 2-3 1-1 1-4 2-0</t>
-  </si>
-  <si>
-    <t>Halmstad,1-0 1-0 2-1 1-1 1-0 1-1 2-3 0-0 1-1 0-0 1-1 0-1 1-0 0-0 1-1 2-1 1-0 2-0 0-1 0-0 1-1 1-1 2-1 2-3 1-1 1-0 1-0</t>
-  </si>
-  <si>
-    <t>Hammarby,3-2 2-0 2-0 1-1 3-2 1-3 2-2 2-1 1-1 5-1 0-2 2-1 1-1 0-0 0-2 2-2 2-1 4-1 1-0 3-0 1-1 3-1 1-0 4-3 0-1 2-0 3-2</t>
-  </si>
-  <si>
-    <t>Kalmar,0-0 0-1 1-0 1-1 2-2 0-0 3-1 2-1 1-1 2-3 2-0 0-1 1-0 1-2 1-1 0-1 0-3 4-1 0-1 1-1 0-2 3-1 4-0 3-2 2-2 1-4 1-0</t>
-  </si>
-  <si>
-    <t>Malmo FF,3-2 1-2 1-1 3-1 3-2 1-1 3-1 2-1 1-2 3-2 4-0 0-5 0-2 0-0 2-3 3-0 2-1 1-1 1-1 0-1 5-1 0-1 0-3 1-1 1-0 2-3 0-2</t>
-  </si>
-  <si>
-    <t>Mjallby,0-0 2-0 1-0 1-0 1-0 1-1 1-1 2-2 2-1 0-1 3-2 0-2 1-0 2-2 0-1 0-0 0-2 0-0 0-0 0-0 4-0 0-1 4-0 1-3 2-2 2-0 2-3</t>
-  </si>
-  <si>
-    <t>Norrkoping,1-1 1-0 2-1 0-3 2-0 1-1 2-1 1-0 3-2 0-1 0-1 2-1 1-2 1-2 1-2 2-1 3-0 1-1 3-0 2-4 2-1 3-1 5-0 1-0 2-2 3-2 1-0</t>
-  </si>
-  <si>
-    <t>Orebro,0-0 5-0 1-0 0-3 1-0 2-3 3-0 1-2 3-0 2-1 0-2 1-1 1-2 2-2 1-0 1-1 2-0 0-3 3-0 2-0 5-1 1-2 2-0 1-2 1-1 0-1 3-2</t>
-  </si>
-  <si>
-    <t>Ostersunds,0-0 5-0 1-1 1-2 1-0 2-0 1-2 3-0 3-1 2-3 3-0 0-1 1-1 5-0 1-2 0-1 3-0 1-0 3-1 2-0 0-3 1-1 0-3 4-3 1-1 3-0 3-0</t>
-  </si>
-  <si>
-    <t>Sirius,1-1 1-0 1-2 1-1 3-2 0-2 2-2 3-0 2-1 4-0 5-1 2-0 1-2 0-0 0-1 1-1 1-0 1-0 1-2 2-4 1-1 3-1 2-1 3-0 0-1 2-3 2-3</t>
-  </si>
-  <si>
-    <t>Varbergs,0-0 1-3 1-3 1-2 3-2 1-3 2-1 3-1 1-1 2-1 1-1 2-0 1-1 0-0 1-0 1-2 1-0 0-3 1-0 1-1 2-1 0-0 2-1 1-1 2-2 3-0 0-0</t>
-  </si>
-  <si>
-    <t>AIK,2 -2 2 1 -2 0 1 0 -1 1 2 0 1 3 1 1 2 0 2 0 -1 1 -1 1 -1 -1 3,(15)</t>
-  </si>
-  <si>
-    <t>Degerfors,-2 -1 1 -1 2 0 3 0 2 -4 -5 -2 0 -3 3 -3 -2 -3 -1 -1 1 0 1 1 -1 -1 -2,(-18)</t>
-  </si>
-  <si>
-    <t>Djurgarden,2 1 2 2 -2 2 0 0 3 0 4 1 1 -3 1 0 -1 3 0 1 3 -1 -3 1 -3 1 1,(16)</t>
-  </si>
-  <si>
-    <t>Elfsborg,-2 2 1 -1 0 2 -1 -1 1 1 1 3 0 3 2 0 3 2 -2 -1 -4 1 3 3 1 -1 0,(16)</t>
-  </si>
-  <si>
-    <t>Goteborg,0 2 -1 0 0 0 0 0 -1 1 1 -2 -1 0 1 -1 -1 2 -2 -3 -2 -1 2 2 3 1 -2,(-2)</t>
-  </si>
-  <si>
-    <t>Hacken,-1 -1 -1 0 0 -1 0 2 1 1 1 0 -1 5 -3 -1 1 -2 0 0 0 1 5 -1 0 -3 2,(4)</t>
-  </si>
-  <si>
-    <t>Halmstad,1 -1 -1 0 -1 0 1 0 0 0 0 1 -1 0 0 1 -1 -2 -1 0 0 0 -1 1 0 1 -1,(-4)</t>
-  </si>
-  <si>
-    <t>Hammarby,-1 2 -2 0 1 2 0 -1 0 4 2 1 0 0 -2 0 1 -3 1 3 0 -2 1 1 1 -2 1,(8)</t>
-  </si>
-  <si>
-    <t>Kalmar,0 1 1 0 0 0 -2 1 0 -1 -2 -1 1 1 0 1 -3 3 1 0 2 2 -4 -1 0 3 1,(4)</t>
-  </si>
-  <si>
-    <t>Malmo FF,1 1 0 -2 1 0 2 1 1 -1 4 5 2 0 -1 3 -1 0 0 1 4 -1 3 0 1 1 2,(27)</t>
-  </si>
-  <si>
-    <t>Mjallby,0 -2 -1 1 1 0 0 0 -1 -1 -1 -2 -1 0 -1 0 2 0 0 0 4 1 4 -2 0 2 -1,(2)</t>
-  </si>
-  <si>
-    <t>Norrkoping,0 -1 1 3 2 0 -1 -1 1 1 -1 -1 1 -1 1 -1 3 0 3 2 1 2 -5 -1 0 1 -1,(8)</t>
-  </si>
-  <si>
-    <t>Orebro,0 -5 -1 -3 1 1 -3 -1 -3 -1 -2 0 1 0 -1 0 -2 -3 -3 2 -4 -1 -2 -1 0 -1 -1,(-33)</t>
-  </si>
-  <si>
-    <t>Ostersunds,0 5 0 -1 -1 -2 -1 3 -2 -1 -3 -1 0 -5 -1 -1 -3 -1 2 -2 -3 0 -3 -1 0 -3 -3,(-28)</t>
-  </si>
-  <si>
-    <t>Sirius,0 1 1 0 -1 -2 0 -3 1 -4 -4 2 -1 0 -1 0 1 1 1 -2 0 -2 1 -3 -1 -1 1,(-15)</t>
-  </si>
-  <si>
-    <t>Varbergs,0 -2 -2 1 -1 -2 1 -2 0 -1 0 2 0 0 1 1 1 3 -1 0 -1 0 -1 0 0 3 0,(0)</t>
-  </si>
-  <si>
-    <t>AIK,Degerfors(14) Goteborg(9) Hammarby(5) Elfsborg(4) Norrkoping(7) Malmo FF(1) Ostersunds(16) Mjallby(12) Hacken(8) Varbergs(10) Kalmar(6) Orebro(15) Halmstad(13) Djurgarden(2) Sirius(11) Hacken(8) Orebro(15) Mjallby(12) Goteborg(9) Kalmar(6) Degerfors(14) Djurgarden(2) Hammarby(5) Norrkoping(7) Malmo FF(1) Halmstad(13) Ostersunds(16)</t>
-  </si>
-  <si>
-    <t>Degerfors,AIK(3) Kalmar(6) Goteborg(9) Mjallby(12) Djurgarden(2) Norrkoping(7) Orebro(15) Halmstad(13) Ostersunds(16) Hammarby(5) Malmo FF(1) Sirius(11) Varbergs(10) Elfsborg(4) Hacken(8) Malmo FF(1) Mjallby(12) Kalmar(6) Sirius(11) Djurgarden(2) AIK(3) Varbergs(10) Halmstad(13) Orebro(15) Elfsborg(4) Goteborg(9) Hacken(8)</t>
-  </si>
-  <si>
-    <t>Djurgarden,Elfsborg(4) Norrkoping(7) Varbergs(10) Malmo FF(1) Degerfors(14) Ostersunds(16) Hammarby(5) Goteborg(9) Orebro(15) Halmstad(13) Sirius(11) Kalmar(6) Hacken(8) AIK(3) Mjallby(12) Mjallby(12) Sirius(11) Hammarby(5) Malmo FF(1) Degerfors(14) Ostersunds(16) AIK(3) Elfsborg(4) Kalmar(6) Goteborg(9) Orebro(15) Halmstad(13)</t>
-  </si>
-  <si>
-    <t>Elfsborg,Djurgarden(2) Varbergs(10) Mjallby(12) AIK(3) Kalmar(6) Sirius(11) Halmstad(13) Malmo FF(1) Norrkoping(7) Goteborg(9) Orebro(15) Ostersunds(16) Hacken(8) Degerfors(14) Hammarby(5) Hammarby(5) Kalmar(6) Hacken(8) Ostersunds(16) Malmo FF(1) Mjallby(12) Goteborg(9) Djurgarden(2) Sirius(11) Degerfors(14) Norrkoping(7) Varbergs(10)</t>
-  </si>
-  <si>
-    <t>Goteborg,Orebro(15) AIK(3) Degerfors(14) Halmstad(13) Hacken(8) Kalmar(6) Sirius(11) Djurgarden(2) Elfsborg(4) Ostersunds(16) Mjallby(12) Varbergs(10) Norrkoping(7) Hammarby(5) Malmo FF(1) Varbergs(10) Hacken(8) Halmstad(13) AIK(3) Hammarby(5) Kalmar(6) Elfsborg(4) Orebro(15) Mjallby(12) Djurgarden(2) Degerfors(14) Malmo FF(1)</t>
-  </si>
-  <si>
-    <t>Hacken,Halmstad(13) Malmo FF(1) Sirius(11) Hammarby(5) Goteborg(9) Orebro(15) Mjallby(12) Varbergs(10) AIK(3) Kalmar(6) Norrkoping(7) Elfsborg(4) Djurgarden(2) Ostersunds(16) Degerfors(14) AIK(3) Goteborg(9) Elfsborg(4) Mjallby(12) Varbergs(10) Hammarby(5) Orebro(15) Norrkoping(7) Halmstad(13) Ostersunds(16) Kalmar(6) Degerfors(14)</t>
-  </si>
-  <si>
-    <t>Halmstad,Hacken(8) Sirius(11) Norrkoping(7) Goteborg(9) Orebro(15) Mjallby(12) Elfsborg(4) Degerfors(14) Hammarby(5) Djurgarden(2) Varbergs(10) Ostersunds(16) AIK(3) Malmo FF(1) Kalmar(6) Norrkoping(7) Varbergs(10) Goteborg(9) Kalmar(6) Mjallby(12) Sirius(11) Ostersunds(16) Degerfors(14) Hacken(8) Orebro(15) AIK(3) Djurgarden(2)</t>
-  </si>
-  <si>
-    <t>Hammarby,Malmo FF(1) Mjallby(12) AIK(3) Hacken(8) Sirius(11) Varbergs(10) Djurgarden(2) Kalmar(6) Halmstad(13) Degerfors(14) Orebro(15) Norrkoping(7) Ostersunds(16) Goteborg(9) Elfsborg(4) Elfsborg(4) Malmo FF(1) Djurgarden(2) Varbergs(10) Goteborg(9) Hacken(8) Norrkoping(7) AIK(3) Ostersunds(16) Sirius(11) Mjallby(12) Orebro(15)</t>
-  </si>
-  <si>
-    <t>Kalmar,Ostersunds(16) Degerfors(14) Orebro(15) Sirius(11) Elfsborg(4) Goteborg(9) Malmo FF(1) Hammarby(5) Varbergs(10) Hacken(8) AIK(3) Djurgarden(2) Mjallby(12) Norrkoping(7) Halmstad(13) Ostersunds(16) Elfsborg(4) Degerfors(14) Halmstad(13) AIK(3) Goteborg(9) Sirius(11) Mjallby(12) Djurgarden(2) Varbergs(10) Hacken(8) Norrkoping(7)</t>
-  </si>
-  <si>
-    <t>Malmo FF,Hammarby(5) Hacken(8) Ostersunds(16) Djurgarden(2) Varbergs(10) AIK(3) Kalmar(6) Elfsborg(4) Orebro(15) Norrkoping(7) Sirius(11) Degerfors(14) Mjallby(12) Halmstad(13) Goteborg(9) Degerfors(14) Hammarby(5) Norrkoping(7) Djurgarden(2) Elfsborg(4) Orebro(15) Mjallby(12) Ostersunds(16) Varbergs(10) AIK(3) Sirius(11) Goteborg(9)</t>
-  </si>
-  <si>
-    <t>Mjallby,Varbergs(10) Hammarby(5) Elfsborg(4) Degerfors(14) Ostersunds(16) Halmstad(13) Hacken(8) AIK(3) Sirius(11) Norrkoping(7) Goteborg(9) Malmo FF(1) Kalmar(6) Orebro(15) Djurgarden(2) Djurgarden(2) Degerfors(14) AIK(3) Hacken(8) Halmstad(13) Elfsborg(4) Malmo FF(1) Kalmar(6) Goteborg(9) Norrkoping(7) Hammarby(5) Sirius(11)</t>
-  </si>
-  <si>
-    <t>Norrkoping,Sirius(11) Djurgarden(2) Halmstad(13) Orebro(15) AIK(3) Degerfors(14) Varbergs(10) Elfsborg(4) Malmo FF(1) Mjallby(12) Hacken(8) Hammarby(5) Goteborg(9) Kalmar(6) Ostersunds(16) Halmstad(13) Ostersunds(16) Malmo FF(1) Orebro(15) Sirius(11) Varbergs(10) Hammarby(5) Hacken(8) AIK(3) Mjallby(12) Elfsborg(4) Kalmar(6)</t>
-  </si>
-  <si>
-    <t>Orebro,Goteborg(9) Ostersunds(16) Kalmar(6) Norrkoping(7) Halmstad(13) Hacken(8) Degerfors(14) Malmo FF(1) Djurgarden(2) Elfsborg(4) Hammarby(5) AIK(3) Sirius(11) Mjallby(12) Varbergs(10) Sirius(11) AIK(3) Varbergs(10) Norrkoping(7) Ostersunds(16) Malmo FF(1) Hacken(8) Goteborg(9) Degerfors(14) Halmstad(13) Djurgarden(2) Hammarby(5)</t>
-  </si>
-  <si>
-    <t>Ostersunds,Kalmar(6) Orebro(15) Malmo FF(1) Varbergs(10) Mjallby(12) Djurgarden(2) AIK(3) Sirius(11) Degerfors(14) Goteborg(9) Elfsborg(4) Halmstad(13) Hammarby(5) Hacken(8) Norrkoping(7) Kalmar(6) Norrkoping(7) Sirius(11) Elfsborg(4) Orebro(15) Djurgarden(2) Halmstad(13) Malmo FF(1) Hammarby(5) Hacken(8) Varbergs(10) AIK(3)</t>
-  </si>
-  <si>
-    <t>Sirius,Norrkoping(7) Halmstad(13) Hacken(8) Kalmar(6) Hammarby(5) Elfsborg(4) Goteborg(9) Ostersunds(16) Mjallby(12) Malmo FF(1) Djurgarden(2) Degerfors(14) Orebro(15) Varbergs(10) AIK(3) Orebro(15) Djurgarden(2) Ostersunds(16) Degerfors(14) Norrkoping(7) Halmstad(13) Kalmar(6) Varbergs(10) Elfsborg(4) Hammarby(5) Malmo FF(1) Mjallby(12)</t>
-  </si>
-  <si>
-    <t>Varbergs,Mjallby(12) Elfsborg(4) Djurgarden(2) Ostersunds(16) Malmo FF(1) Hammarby(5) Norrkoping(7) Hacken(8) Kalmar(6) AIK(3) Halmstad(13) Goteborg(9) Degerfors(14) Sirius(11) Orebro(15) Goteborg(9) Halmstad(13) Orebro(15) Hammarby(5) Hacken(8) Norrkoping(7) Degerfors(14) Sirius(11) Malmo FF(1) Kalmar(6) Ostersunds(16) Elfsborg(4)</t>
+    <t>AIK,W L W L L W</t>
+  </si>
+  <si>
+    <t>Degerfors,D W W L L L</t>
+  </si>
+  <si>
+    <t>Djurgarden,L L W L W W</t>
+  </si>
+  <si>
+    <t>Elfsborg,W W W W L D</t>
+  </si>
+  <si>
+    <t>Goteborg,L W W W W L</t>
+  </si>
+  <si>
+    <t>Hacken,W W L D L W</t>
+  </si>
+  <si>
+    <t>Halmstad,D L W D W L</t>
+  </si>
+  <si>
+    <t>Hammarby,L W W W L W</t>
+  </si>
+  <si>
+    <t>Kalmar,W L L D W W</t>
+  </si>
+  <si>
+    <t>Malmo FF,L W D W W W</t>
+  </si>
+  <si>
+    <t>Mjallby,W W L D W L</t>
+  </si>
+  <si>
+    <t>Norrkoping,W L L D W L</t>
+  </si>
+  <si>
+    <t>Orebro,L L L D L L</t>
+  </si>
+  <si>
+    <t>Ostersunds,D L L D L L</t>
+  </si>
+  <si>
+    <t>Sirius,L W L L L W</t>
+  </si>
+  <si>
+    <t>Varbergs,D L D D W D</t>
+  </si>
+  <si>
+    <t>AIK,1 0 1 0 0 3,(5)</t>
+  </si>
+  <si>
+    <t>Degerfors,0 2 2 1 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Djurgarden,0 0 3 0 1 1,(5)</t>
+  </si>
+  <si>
+    <t>Elfsborg,1 3 3 2 2 0,(11)</t>
+  </si>
+  <si>
+    <t>Goteborg,0 2 3 3 1 0,(9)</t>
+  </si>
+  <si>
+    <t>Hacken,2 5 2 1 1 2,(13)</t>
+  </si>
+  <si>
+    <t>Halmstad,1 1 3 1 1 0,(7)</t>
+  </si>
+  <si>
+    <t>Hammarby,1 1 4 1 0 3,(10)</t>
+  </si>
+  <si>
+    <t>Kalmar,3 0 2 2 4 1,(12)</t>
+  </si>
+  <si>
+    <t>Malmo FF,0 3 1 1 3 2,(10)</t>
+  </si>
+  <si>
+    <t>Mjallby,1 4 1 2 2 2,(12)</t>
+  </si>
+  <si>
+    <t>Norrkoping,3 0 0 2 3 0,(8)</t>
+  </si>
+  <si>
+    <t>Orebro,1 0 1 1 0 2,(5)</t>
+  </si>
+  <si>
+    <t>Ostersunds,1 0 3 1 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Sirius,1 2 0 0 2 3,(8)</t>
+  </si>
+  <si>
+    <t>Varbergs,0 1 1 2 3 0,(7)</t>
+  </si>
+  <si>
+    <t>AIK,0 1 0 1 1 0,(3)</t>
+  </si>
+  <si>
+    <t>Degerfors,0 1 1 2 1 2,(7)</t>
+  </si>
+  <si>
+    <t>Djurgarden,1 3 2 3 0 0,(9)</t>
+  </si>
+  <si>
+    <t>Elfsborg,0 0 0 1 3 0,(4)</t>
+  </si>
+  <si>
+    <t>Goteborg,1 0 1 0 0 2,(4)</t>
+  </si>
+  <si>
+    <t>Hacken,1 0 3 1 4 0,(9)</t>
+  </si>
+  <si>
+    <t>Halmstad,1 2 2 1 0 1,(7)</t>
+  </si>
+  <si>
+    <t>Hammarby,3 0 3 0 2 2,(10)</t>
+  </si>
+  <si>
+    <t>Kalmar,1 4 3 2 1 0,(11)</t>
+  </si>
+  <si>
+    <t>Malmo FF,1 0 1 0 2 0,(4)</t>
+  </si>
+  <si>
+    <t>Mjallby,0 0 3 2 0 3,(8)</t>
+  </si>
+  <si>
+    <t>Norrkoping,1 5 1 2 2 1,(12)</t>
+  </si>
+  <si>
+    <t>Orebro,2 2 2 1 1 3,(11)</t>
+  </si>
+  <si>
+    <t>Ostersunds,1 3 4 1 3 3,(15)</t>
+  </si>
+  <si>
+    <t>Sirius,3 1 3 1 3 2,(13)</t>
+  </si>
+  <si>
+    <t>Varbergs,0 2 1 2 0 0,(5)</t>
+  </si>
+  <si>
+    <t>AIK,1 1 1 1 1 3,(8)</t>
+  </si>
+  <si>
+    <t>Degerfors,0 3 3 3 1 2,(12)</t>
+  </si>
+  <si>
+    <t>Djurgarden,1 3 5 3 1 1,(14)</t>
+  </si>
+  <si>
+    <t>Elfsborg,1 3 3 3 5 0,(15)</t>
+  </si>
+  <si>
+    <t>Goteborg,1 2 4 3 1 2,(13)</t>
+  </si>
+  <si>
+    <t>Hacken,3 5 5 2 5 2,(22)</t>
+  </si>
+  <si>
+    <t>Halmstad,2 3 5 2 1 1,(14)</t>
+  </si>
+  <si>
+    <t>Hammarby,4 1 7 1 2 5,(20)</t>
+  </si>
+  <si>
+    <t>Kalmar,4 4 5 4 5 1,(23)</t>
+  </si>
+  <si>
+    <t>Malmo FF,1 3 2 1 5 2,(14)</t>
+  </si>
+  <si>
+    <t>Mjallby,1 4 4 4 2 5,(20)</t>
+  </si>
+  <si>
+    <t>Norrkoping,4 5 1 4 5 1,(20)</t>
+  </si>
+  <si>
+    <t>Orebro,3 2 3 2 1 5,(16)</t>
+  </si>
+  <si>
+    <t>Ostersunds,2 3 7 2 3 3,(20)</t>
+  </si>
+  <si>
+    <t>Sirius,4 3 3 1 5 5,(21)</t>
+  </si>
+  <si>
+    <t>Varbergs,0 3 2 4 3 0,(12)</t>
+  </si>
+  <si>
+    <t>AIK,1-0 1-0 1-0 1-0 1-0 3-0</t>
+  </si>
+  <si>
+    <t>Degerfors,0-0 2-1 1-2 1-2 0-1 2-0</t>
+  </si>
+  <si>
+    <t>Djurgarden,1-0 0-3 3-2 3-0 0-1 1-0</t>
+  </si>
+  <si>
+    <t>Elfsborg,1-0 0-3 3-0 1-2 3-2 0-0</t>
+  </si>
+  <si>
+    <t>Goteborg,1-0 2-0 1-3 3-0 0-1 0-2</t>
+  </si>
+  <si>
+    <t>Hacken,1-2 5-0 2-3 1-1 1-4 2-0</t>
+  </si>
+  <si>
+    <t>Halmstad,1-1 2-1 2-3 1-1 1-0 1-0</t>
+  </si>
+  <si>
+    <t>Hammarby,3-1 1-0 4-3 0-1 2-0 3-2</t>
+  </si>
+  <si>
+    <t>Kalmar,3-1 4-0 3-2 2-2 1-4 1-0</t>
+  </si>
+  <si>
+    <t>Malmo FF,0-1 0-3 1-1 1-0 2-3 0-2</t>
+  </si>
+  <si>
+    <t>Mjallby,0-1 4-0 1-3 2-2 2-0 2-3</t>
+  </si>
+  <si>
+    <t>Norrkoping,3-1 5-0 1-0 2-2 3-2 1-0</t>
+  </si>
+  <si>
+    <t>Orebro,1-2 2-0 1-2 1-1 0-1 3-2</t>
+  </si>
+  <si>
+    <t>Ostersunds,1-1 0-3 4-3 1-1 3-0 3-0</t>
+  </si>
+  <si>
+    <t>Sirius,3-1 2-1 3-0 0-1 2-3 2-3</t>
+  </si>
+  <si>
+    <t>Varbergs,0-0 2-1 1-1 2-2 3-0 0-0</t>
+  </si>
+  <si>
+    <t>AIK,1 -1 1 -1 -1 3,(2)</t>
+  </si>
+  <si>
+    <t>Degerfors,0 1 1 -1 -1 -2,(-2)</t>
+  </si>
+  <si>
+    <t>Djurgarden,-1 -3 1 -3 1 1,(-4)</t>
+  </si>
+  <si>
+    <t>Elfsborg,1 3 3 1 -1 0,(7)</t>
+  </si>
+  <si>
+    <t>Goteborg,-1 2 2 3 1 -2,(5)</t>
+  </si>
+  <si>
+    <t>Hacken,1 5 -1 0 -3 2,(4)</t>
+  </si>
+  <si>
+    <t>Halmstad,0 -1 1 0 1 -1,(0)</t>
+  </si>
+  <si>
+    <t>Hammarby,-2 1 1 1 -2 1,(0)</t>
+  </si>
+  <si>
+    <t>Kalmar,2 -4 -1 0 3 1,(1)</t>
+  </si>
+  <si>
+    <t>Malmo FF,-1 3 0 1 1 2,(6)</t>
+  </si>
+  <si>
+    <t>Mjallby,1 4 -2 0 2 -1,(4)</t>
+  </si>
+  <si>
+    <t>Norrkoping,2 -5 -1 0 1 -1,(-4)</t>
+  </si>
+  <si>
+    <t>Orebro,-1 -2 -1 0 -1 -1,(-6)</t>
+  </si>
+  <si>
+    <t>Ostersunds,0 -3 -1 0 -3 -3,(-10)</t>
+  </si>
+  <si>
+    <t>Sirius,-2 1 -3 -1 -1 1,(-5)</t>
+  </si>
+  <si>
+    <t>Varbergs,0 -1 0 0 3 0,(2)</t>
+  </si>
+  <si>
+    <t>AIK,Djurgarden(2) Hammarby(5) Norrkoping(7) Malmo FF(1) Halmstad(13) Ostersunds(16)</t>
+  </si>
+  <si>
+    <t>Degerfors,Varbergs(10) Halmstad(13) Orebro(15) Elfsborg(4) Goteborg(9) Hacken(8)</t>
+  </si>
+  <si>
+    <t>Djurgarden,AIK(3) Elfsborg(4) Kalmar(6) Goteborg(9) Orebro(15) Halmstad(13)</t>
+  </si>
+  <si>
+    <t>Elfsborg,Goteborg(9) Djurgarden(2) Sirius(11) Degerfors(14) Norrkoping(7) Varbergs(10)</t>
+  </si>
+  <si>
+    <t>Goteborg,Elfsborg(4) Orebro(15) Mjallby(12) Djurgarden(2) Degerfors(14) Malmo FF(1)</t>
+  </si>
+  <si>
+    <t>Hacken,Orebro(15) Norrkoping(7) Halmstad(13) Ostersunds(16) Kalmar(6) Degerfors(14)</t>
+  </si>
+  <si>
+    <t>Halmstad,Ostersunds(16) Degerfors(14) Hacken(8) Orebro(15) AIK(3) Djurgarden(2)</t>
+  </si>
+  <si>
+    <t>Hammarby,Norrkoping(7) AIK(3) Ostersunds(16) Sirius(11) Mjallby(12) Orebro(15)</t>
+  </si>
+  <si>
+    <t>Kalmar,Sirius(11) Mjallby(12) Djurgarden(2) Varbergs(10) Hacken(8) Norrkoping(7)</t>
+  </si>
+  <si>
+    <t>Malmo FF,Mjallby(12) Ostersunds(16) Varbergs(10) AIK(3) Sirius(11) Goteborg(9)</t>
+  </si>
+  <si>
+    <t>Mjallby,Malmo FF(1) Kalmar(6) Goteborg(9) Norrkoping(7) Hammarby(5) Sirius(11)</t>
+  </si>
+  <si>
+    <t>Norrkoping,Hammarby(5) Hacken(8) AIK(3) Mjallby(12) Elfsborg(4) Kalmar(6)</t>
+  </si>
+  <si>
+    <t>Orebro,Hacken(8) Goteborg(9) Degerfors(14) Halmstad(13) Djurgarden(2) Hammarby(5)</t>
+  </si>
+  <si>
+    <t>Ostersunds,Halmstad(13) Malmo FF(1) Hammarby(5) Hacken(8) Varbergs(10) AIK(3)</t>
+  </si>
+  <si>
+    <t>Sirius,Kalmar(6) Varbergs(10) Elfsborg(4) Hammarby(5) Malmo FF(1) Mjallby(12)</t>
+  </si>
+  <si>
+    <t>Varbergs,Degerfors(14) Sirius(11) Malmo FF(1) Kalmar(6) Ostersunds(16) Elfsborg(4)</t>
   </si>
   <si>
     <t>swe_division</t>

--- a/SWE.xlsx
+++ b/SWE.xlsx
@@ -668,340 +668,340 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>AIK,L W L L W W</t>
-  </si>
-  <si>
-    <t>Degerfors,W W L L L L</t>
-  </si>
-  <si>
-    <t>Djurgarden,L W L W W D</t>
-  </si>
-  <si>
-    <t>Elfsborg,W W W L D W</t>
-  </si>
-  <si>
-    <t>Goteborg,W W W W L D</t>
-  </si>
-  <si>
-    <t>Hacken,W L D L W D</t>
-  </si>
-  <si>
-    <t>Halmstad,L W D W L L</t>
-  </si>
-  <si>
-    <t>Hammarby,W W W L W W</t>
-  </si>
-  <si>
-    <t>Kalmar,L L D W W W</t>
-  </si>
-  <si>
-    <t>Malmo FF,W D W W W D</t>
-  </si>
-  <si>
-    <t>Mjallby,W L D W L W</t>
-  </si>
-  <si>
-    <t>Norrkoping,L L D W L D</t>
-  </si>
-  <si>
-    <t>Orebro,L L D L L L</t>
-  </si>
-  <si>
-    <t>Ostersunds,L L D L L L</t>
-  </si>
-  <si>
-    <t>Sirius,W L L L W D</t>
-  </si>
-  <si>
-    <t>Varbergs,L D D W D L</t>
-  </si>
-  <si>
-    <t>AIK,0 1 0 0 3 1,(5)</t>
-  </si>
-  <si>
-    <t>Degerfors,2 2 1 0 0 1,(6)</t>
-  </si>
-  <si>
-    <t>Djurgarden,0 3 0 1 1 1,(6)</t>
-  </si>
-  <si>
-    <t>Elfsborg,3 3 2 2 0 1,(11)</t>
-  </si>
-  <si>
-    <t>Goteborg,2 3 3 1 0 3,(12)</t>
-  </si>
-  <si>
-    <t>Hacken,5 2 1 1 2 2,(13)</t>
-  </si>
-  <si>
-    <t>Halmstad,1 3 1 1 0 0,(6)</t>
-  </si>
-  <si>
-    <t>Hammarby,1 4 1 0 3 4,(13)</t>
-  </si>
-  <si>
-    <t>Kalmar,0 2 2 4 1 2,(11)</t>
-  </si>
-  <si>
-    <t>Malmo FF,3 1 1 3 2 2,(12)</t>
-  </si>
-  <si>
-    <t>Mjallby,4 1 2 2 2 2,(13)</t>
-  </si>
-  <si>
-    <t>Norrkoping,0 0 2 3 0 1,(6)</t>
-  </si>
-  <si>
-    <t>Orebro,0 1 1 0 2 1,(5)</t>
-  </si>
-  <si>
-    <t>Ostersunds,0 3 1 0 0 0,(4)</t>
-  </si>
-  <si>
-    <t>Sirius,2 0 0 2 3 3,(10)</t>
-  </si>
-  <si>
-    <t>Varbergs,1 1 2 3 0 0,(7)</t>
-  </si>
-  <si>
-    <t>AIK,1 0 1 1 0 0,(3)</t>
-  </si>
-  <si>
-    <t>Degerfors,1 1 2 1 2 4,(11)</t>
-  </si>
-  <si>
-    <t>Djurgarden,3 2 3 0 0 1,(9)</t>
-  </si>
-  <si>
-    <t>Elfsborg,0 0 1 3 0 0,(4)</t>
-  </si>
-  <si>
-    <t>Goteborg,0 1 0 0 2 3,(6)</t>
-  </si>
-  <si>
-    <t>Hacken,0 3 1 4 0 2,(10)</t>
-  </si>
-  <si>
-    <t>Halmstad,2 2 1 0 1 1,(7)</t>
-  </si>
-  <si>
-    <t>Hammarby,0 3 0 2 2 1,(8)</t>
-  </si>
-  <si>
-    <t>Kalmar,4 3 2 1 0 1,(11)</t>
-  </si>
-  <si>
-    <t>Malmo FF,0 1 0 2 0 2,(5)</t>
-  </si>
-  <si>
-    <t>Mjallby,0 3 2 0 3 0,(8)</t>
-  </si>
-  <si>
-    <t>Norrkoping,5 1 2 2 1 1,(12)</t>
-  </si>
-  <si>
-    <t>Orebro,2 2 1 1 3 2,(11)</t>
-  </si>
-  <si>
-    <t>Ostersunds,3 4 1 3 3 2,(16)</t>
-  </si>
-  <si>
-    <t>Sirius,1 3 1 3 2 3,(13)</t>
-  </si>
-  <si>
-    <t>Varbergs,2 1 2 0 0 1,(6)</t>
-  </si>
-  <si>
-    <t>AIK,1 1 1 1 3 1,(8)</t>
-  </si>
-  <si>
-    <t>Degerfors,3 3 3 1 2 5,(17)</t>
-  </si>
-  <si>
-    <t>Djurgarden,3 5 3 1 1 2,(15)</t>
-  </si>
-  <si>
-    <t>Elfsborg,3 3 3 5 0 1,(15)</t>
-  </si>
-  <si>
-    <t>Goteborg,2 4 3 1 2 6,(18)</t>
-  </si>
-  <si>
-    <t>Hacken,5 5 2 5 2 4,(23)</t>
-  </si>
-  <si>
-    <t>Halmstad,3 5 2 1 1 1,(13)</t>
-  </si>
-  <si>
-    <t>Hammarby,1 7 1 2 5 5,(21)</t>
-  </si>
-  <si>
-    <t>Kalmar,4 5 4 5 1 3,(22)</t>
-  </si>
-  <si>
-    <t>Malmo FF,3 2 1 5 2 4,(17)</t>
-  </si>
-  <si>
-    <t>Mjallby,4 4 4 2 5 2,(21)</t>
-  </si>
-  <si>
-    <t>Norrkoping,5 1 4 5 1 2,(18)</t>
-  </si>
-  <si>
-    <t>Orebro,2 3 2 1 5 3,(16)</t>
-  </si>
-  <si>
-    <t>Ostersunds,3 7 2 3 3 2,(20)</t>
-  </si>
-  <si>
-    <t>Sirius,3 3 1 5 5 6,(23)</t>
-  </si>
-  <si>
-    <t>Varbergs,3 2 4 3 0 1,(13)</t>
-  </si>
-  <si>
-    <t>AIK,1-0 1-0 1-0 1-0 3-0 0-1</t>
-  </si>
-  <si>
-    <t>Degerfors,2-1 1-2 1-2 0-1 2-0 1-4</t>
-  </si>
-  <si>
-    <t>Djurgarden,0-3 3-2 3-0 0-1 1-0 1-1</t>
-  </si>
-  <si>
-    <t>Elfsborg,0-3 3-0 1-2 3-2 0-0 0-1</t>
-  </si>
-  <si>
-    <t>Goteborg,2-0 1-3 3-0 0-1 0-2 3-3</t>
-  </si>
-  <si>
-    <t>Hacken,5-0 2-3 1-1 1-4 2-0 2-2</t>
-  </si>
-  <si>
-    <t>Halmstad,2-1 2-3 1-1 1-0 1-0 0-1</t>
-  </si>
-  <si>
-    <t>Hammarby,1-0 4-3 0-1 2-0 3-2 1-4</t>
-  </si>
-  <si>
-    <t>Kalmar,4-0 3-2 2-2 1-4 1-0 1-2</t>
-  </si>
-  <si>
-    <t>Malmo FF,0-3 1-1 1-0 2-3 0-2 2-2</t>
-  </si>
-  <si>
-    <t>Mjallby,4-0 1-3 2-2 2-0 2-3 0-2</t>
-  </si>
-  <si>
-    <t>Norrkoping,5-0 1-0 2-2 3-2 1-0 1-1</t>
-  </si>
-  <si>
-    <t>Orebro,2-0 1-2 1-1 0-1 3-2 1-2</t>
-  </si>
-  <si>
-    <t>Ostersunds,0-3 4-3 1-1 3-0 3-0 0-2</t>
-  </si>
-  <si>
-    <t>Sirius,2-1 3-0 0-1 2-3 2-3 3-3</t>
-  </si>
-  <si>
-    <t>Varbergs,2-1 1-1 2-2 3-0 0-0 0-1</t>
-  </si>
-  <si>
-    <t>AIK,-1 1 -1 -1 3 1,(2)</t>
-  </si>
-  <si>
-    <t>Degerfors,1 1 -1 -1 -2 -3,(-5)</t>
-  </si>
-  <si>
-    <t>Djurgarden,-3 1 -3 1 1 0,(-3)</t>
-  </si>
-  <si>
-    <t>Elfsborg,3 3 1 -1 0 1,(7)</t>
-  </si>
-  <si>
-    <t>Goteborg,2 2 3 1 -2 0,(6)</t>
-  </si>
-  <si>
-    <t>Hacken,5 -1 0 -3 2 0,(3)</t>
-  </si>
-  <si>
-    <t>Halmstad,-1 1 0 1 -1 -1,(-1)</t>
-  </si>
-  <si>
-    <t>Hammarby,1 1 1 -2 1 3,(5)</t>
-  </si>
-  <si>
-    <t>Kalmar,-4 -1 0 3 1 1,(0)</t>
-  </si>
-  <si>
-    <t>Malmo FF,3 0 1 1 2 0,(7)</t>
-  </si>
-  <si>
-    <t>Mjallby,4 -2 0 2 -1 2,(5)</t>
-  </si>
-  <si>
-    <t>Norrkoping,-5 -1 0 1 -1 0,(-6)</t>
-  </si>
-  <si>
-    <t>Orebro,-2 -1 0 -1 -1 -1,(-6)</t>
-  </si>
-  <si>
-    <t>Ostersunds,-3 -1 0 -3 -3 -2,(-12)</t>
-  </si>
-  <si>
-    <t>Sirius,1 -3 -1 -1 1 0,(-3)</t>
-  </si>
-  <si>
-    <t>Varbergs,-1 0 0 3 0 -1,(1)</t>
-  </si>
-  <si>
-    <t>AIK,Hammarby(5) Norrkoping(7) Malmo FF(1) Halmstad(13) Ostersunds(16) Varbergs(12)</t>
-  </si>
-  <si>
-    <t>Degerfors,Halmstad(13) Orebro(15) Elfsborg(4) Goteborg(9) Hacken(8) Hammarby(5)</t>
-  </si>
-  <si>
-    <t>Djurgarden,Elfsborg(4) Kalmar(6) Goteborg(9) Orebro(15) Halmstad(13) Norrkoping(7)</t>
-  </si>
-  <si>
-    <t>Elfsborg,Djurgarden(2) Sirius(11) Degerfors(14) Norrkoping(7) Varbergs(12) Halmstad(13)</t>
-  </si>
-  <si>
-    <t>Goteborg,Orebro(15) Mjallby(10) Djurgarden(2) Degerfors(14) Malmo FF(1) Sirius(11)</t>
-  </si>
-  <si>
-    <t>Hacken,Norrkoping(7) Halmstad(13) Ostersunds(16) Kalmar(6) Degerfors(14) Malmo FF(1)</t>
-  </si>
-  <si>
-    <t>Halmstad,Degerfors(14) Hacken(8) Orebro(15) AIK(3) Djurgarden(2) Elfsborg(4)</t>
-  </si>
-  <si>
-    <t>Hammarby,AIK(3) Ostersunds(16) Sirius(11) Mjallby(10) Orebro(15) Degerfors(14)</t>
-  </si>
-  <si>
-    <t>Kalmar,Mjallby(10) Djurgarden(2) Varbergs(12) Hacken(8) Norrkoping(7) Orebro(15)</t>
-  </si>
-  <si>
-    <t>Malmo FF,Ostersunds(16) Varbergs(12) AIK(3) Sirius(11) Goteborg(9) Hacken(8)</t>
-  </si>
-  <si>
-    <t>Mjallby,Kalmar(6) Goteborg(9) Norrkoping(7) Hammarby(5) Sirius(11) Ostersunds(16)</t>
-  </si>
-  <si>
-    <t>Norrkoping,Hacken(8) AIK(3) Mjallby(10) Elfsborg(4) Kalmar(6) Djurgarden(2)</t>
-  </si>
-  <si>
-    <t>Orebro,Goteborg(9) Degerfors(14) Halmstad(13) Djurgarden(2) Hammarby(5) Kalmar(6)</t>
-  </si>
-  <si>
-    <t>Ostersunds,Malmo FF(1) Hammarby(5) Hacken(8) Varbergs(12) AIK(3) Mjallby(10)</t>
-  </si>
-  <si>
-    <t>Sirius,Varbergs(12) Elfsborg(4) Hammarby(5) Malmo FF(1) Mjallby(10) Goteborg(9)</t>
-  </si>
-  <si>
-    <t>Varbergs,Sirius(11) Malmo FF(1) Kalmar(6) Ostersunds(16) Elfsborg(4) AIK(3)</t>
+    <t>AIK,W L W W L D W D L W W D W W W W W D W D L W L W L L W W</t>
+  </si>
+  <si>
+    <t>Degerfors,L L W L W D W D W L L L D L W L L L L L W D W W L L L L</t>
+  </si>
+  <si>
+    <t>Djurgarden,W W W W L W D D W D W W W L W D L W D W W L L W L W W D</t>
+  </si>
+  <si>
+    <t>Elfsborg,L W W L D W L L W W W W D W W D W W L L L W W W W L D W</t>
+  </si>
+  <si>
+    <t>Goteborg,D W L D D D D D L W W L L D W L L W L L L L W W W W L D</t>
+  </si>
+  <si>
+    <t>Hacken,L L L D D L D W W W W D L W L L W L D D D W W L D L W D</t>
+  </si>
+  <si>
+    <t>Halmstad,W L L D L D W D D D D W L D D W L L L D D D L W D W L L</t>
+  </si>
+  <si>
+    <t>Hammarby,L W L D W W D L D W W W D D L D W L W W D L W W W L W W</t>
+  </si>
+  <si>
+    <t>Kalmar,D W W D D D L W D L L L W W D W L W W D W W L L D W W W</t>
+  </si>
+  <si>
+    <t>Malmo FF,W W D L W D W W W L W W W D L W L D D W W L W D W W W D</t>
+  </si>
+  <si>
+    <t>Mjallby,D L L W W D D D L L L L L D L D W D D D W W W L D W L W</t>
+  </si>
+  <si>
+    <t>Norrkoping,D L W W W D L L W W L L W L W L W D W W W W L L D W L D</t>
+  </si>
+  <si>
+    <t>Orebro,D L L L W W L L L L L D W D L D L L L W L L L L D L L L</t>
+  </si>
+  <si>
+    <t>Ostersunds,D W D L L L L W L L L L D L L L L L W L L D L L D L L L</t>
+  </si>
+  <si>
+    <t>Sirius,D W W D L L D L W L L W L D L D W W W L D L W L L L W D</t>
+  </si>
+  <si>
+    <t>Varbergs,D L L W L L W L D L D W D D W W W W L D L D L D D W D L</t>
+  </si>
+  <si>
+    <t>AIK,2 0 2 1 0 1 2 2 1 2 2 1 1 4 1 2 2 0 3 1 1 1 0 1 0 0 3 1,(37)</t>
+  </si>
+  <si>
+    <t>Degerfors,0 0 3 0 2 1 3 0 3 1 0 0 1 0 3 0 0 1 1 2 2 0 2 2 1 0 0 1,(29)</t>
+  </si>
+  <si>
+    <t>Djurgarden,2 1 3 3 0 2 2 0 3 0 5 1 2 1 1 0 0 4 1 3 3 0 0 3 0 1 1 1,(43)</t>
+  </si>
+  <si>
+    <t>Elfsborg,0 3 1 0 2 2 2 1 1 1 2 3 1 3 2 2 3 4 1 0 0 1 3 3 2 2 0 1,(46)</t>
+  </si>
+  <si>
+    <t>Goteborg,0 2 2 1 1 0 2 0 0 3 3 0 1 0 3 1 2 2 1 0 0 0 2 3 3 1 0 3,(36)</t>
+  </si>
+  <si>
+    <t>Hacken,0 1 1 1 1 2 1 3 2 3 1 1 1 5 0 1 3 2 0 1 1 2 5 2 1 1 2 2,(46)</t>
+  </si>
+  <si>
+    <t>Halmstad,1 0 1 1 0 1 3 0 1 0 1 1 0 0 1 2 0 0 0 0 1 1 1 3 1 1 0 0,(21)</t>
+  </si>
+  <si>
+    <t>Hammarby,2 2 0 1 3 3 2 1 1 5 2 2 1 0 0 2 2 1 1 3 1 1 1 4 1 0 3 4,(49)</t>
+  </si>
+  <si>
+    <t>Kalmar,0 1 1 1 2 0 1 2 1 2 0 0 1 2 1 1 0 4 1 1 2 3 0 2 2 4 1 2,(38)</t>
+  </si>
+  <si>
+    <t>Malmo FF,3 2 1 1 3 1 3 2 2 2 4 5 2 0 2 3 1 1 1 1 5 0 3 1 1 3 2 2,(57)</t>
+  </si>
+  <si>
+    <t>Mjallby,0 0 0 1 1 1 1 2 1 0 2 0 0 2 0 0 2 0 0 0 4 1 4 1 2 2 2 2,(31)</t>
+  </si>
+  <si>
+    <t>Norrkoping,1 0 2 3 2 1 1 0 3 1 0 1 2 1 2 1 3 1 3 4 2 3 0 0 2 3 0 1,(43)</t>
+  </si>
+  <si>
+    <t>Orebro,0 0 0 0 1 3 0 1 0 1 0 1 2 2 0 1 0 0 0 2 1 1 0 1 1 0 2 1,(21)</t>
+  </si>
+  <si>
+    <t>Ostersunds,0 5 1 1 0 0 1 3 1 2 0 0 1 0 1 0 0 0 3 0 0 1 0 3 1 0 0 0,(24)</t>
+  </si>
+  <si>
+    <t>Sirius,1 1 2 1 2 0 2 0 2 0 1 2 1 0 0 1 1 1 2 2 1 1 2 0 0 2 3 3,(34)</t>
+  </si>
+  <si>
+    <t>Varbergs,0 1 1 2 2 1 2 1 1 1 1 2 1 0 1 2 1 3 0 1 1 0 1 1 2 3 0 0,(32)</t>
+  </si>
+  <si>
+    <t>AIK,0 2 0 0 2 1 1 2 2 1 0 1 0 1 0 1 0 0 1 1 2 0 1 0 1 1 0 0,(21)</t>
+  </si>
+  <si>
+    <t>Degerfors,2 1 2 1 0 1 0 0 1 5 5 2 1 3 0 3 2 4 2 3 1 0 1 1 2 1 2 4,(50)</t>
+  </si>
+  <si>
+    <t>Djurgarden,0 0 1 1 2 0 2 0 0 0 1 0 1 4 0 0 1 1 1 2 0 1 3 2 3 0 0 1,(27)</t>
+  </si>
+  <si>
+    <t>Elfsborg,2 1 0 1 2 0 3 2 0 0 1 0 1 0 0 2 0 2 3 1 4 0 0 0 1 3 0 0,(29)</t>
+  </si>
+  <si>
+    <t>Goteborg,0 0 3 1 1 0 2 0 1 2 2 2 2 0 2 2 3 0 3 3 2 1 0 1 0 0 2 3,(38)</t>
+  </si>
+  <si>
+    <t>Hacken,1 2 2 1 1 3 1 1 1 2 0 1 2 0 3 2 2 4 0 1 1 1 0 3 1 4 0 2,(42)</t>
+  </si>
+  <si>
+    <t>Halmstad,0 1 2 1 1 1 2 0 1 0 1 0 1 0 1 1 1 2 1 0 1 1 2 2 1 0 1 1,(26)</t>
+  </si>
+  <si>
+    <t>Hammarby,3 0 2 1 2 1 2 2 1 1 0 1 1 0 2 2 1 4 0 0 1 3 0 3 0 2 2 1,(38)</t>
+  </si>
+  <si>
+    <t>Kalmar,0 0 0 1 2 0 3 1 1 3 2 1 0 1 1 0 3 1 0 1 0 1 4 3 2 1 0 1,(33)</t>
+  </si>
+  <si>
+    <t>Malmo FF,2 1 1 3 2 1 1 1 1 3 0 0 0 0 3 0 2 1 1 0 1 1 0 1 0 2 0 2,(30)</t>
+  </si>
+  <si>
+    <t>Mjallby,0 2 1 0 0 1 1 2 2 1 3 2 1 2 1 0 0 0 0 0 0 0 0 3 2 0 3 0,(27)</t>
+  </si>
+  <si>
+    <t>Norrkoping,1 1 1 0 0 1 2 1 2 0 1 2 1 2 1 2 0 1 0 2 1 1 5 1 2 2 1 1,(35)</t>
+  </si>
+  <si>
+    <t>Orebro,0 5 1 3 0 2 3 2 3 2 2 1 1 2 1 1 2 3 3 0 5 2 2 2 1 1 3 2,(55)</t>
+  </si>
+  <si>
+    <t>Ostersunds,0 0 1 2 1 2 2 0 3 3 3 1 1 5 2 1 3 1 1 2 3 1 3 4 1 3 3 2,(54)</t>
+  </si>
+  <si>
+    <t>Sirius,1 0 1 1 3 2 2 3 1 4 5 0 2 0 1 1 0 0 1 4 1 3 1 3 1 3 2 3,(49)</t>
+  </si>
+  <si>
+    <t>Varbergs,0 3 3 1 3 3 1 3 1 2 1 0 1 0 0 1 0 0 1 1 2 0 2 1 2 0 0 1,(33)</t>
+  </si>
+  <si>
+    <t>AIK,2 2 2 1 2 2 3 4 3 3 2 2 1 5 1 3 2 0 4 2 3 1 1 1 1 1 3 1,(58)</t>
+  </si>
+  <si>
+    <t>Degerfors,2 1 5 1 2 2 3 0 4 6 5 2 2 3 3 3 2 5 3 5 3 0 3 3 3 1 2 5,(79)</t>
+  </si>
+  <si>
+    <t>Djurgarden,2 1 4 4 2 2 4 0 3 0 6 1 3 5 1 0 1 5 2 5 3 1 3 5 3 1 1 2,(70)</t>
+  </si>
+  <si>
+    <t>Elfsborg,2 4 1 1 4 2 5 3 1 1 3 3 2 3 2 4 3 6 4 1 4 1 3 3 3 5 0 1,(75)</t>
+  </si>
+  <si>
+    <t>Goteborg,0 2 5 2 2 0 4 0 1 5 5 2 3 0 5 3 5 2 4 3 2 1 2 4 3 1 2 6,(74)</t>
+  </si>
+  <si>
+    <t>Hacken,1 3 3 2 2 5 2 4 3 5 1 2 3 5 3 3 5 6 0 2 2 3 5 5 2 5 2 4,(88)</t>
+  </si>
+  <si>
+    <t>Halmstad,1 1 3 2 1 2 5 0 2 0 2 1 1 0 2 3 1 2 1 0 2 2 3 5 2 1 1 1,(47)</t>
+  </si>
+  <si>
+    <t>Hammarby,5 2 2 2 5 4 4 3 2 6 2 3 2 0 2 4 3 5 1 3 2 4 1 7 1 2 5 5,(87)</t>
+  </si>
+  <si>
+    <t>Kalmar,0 1 1 2 4 0 4 3 2 5 2 1 1 3 2 1 3 5 1 2 2 4 4 5 4 5 1 3,(71)</t>
+  </si>
+  <si>
+    <t>Malmo FF,5 3 2 4 5 2 4 3 3 5 4 5 2 0 5 3 3 2 2 1 6 1 3 2 1 5 2 4,(87)</t>
+  </si>
+  <si>
+    <t>Mjallby,0 2 1 1 1 2 2 4 3 1 5 2 1 4 1 0 2 0 0 0 4 1 4 4 4 2 5 2,(58)</t>
+  </si>
+  <si>
+    <t>Norrkoping,2 1 3 3 2 2 3 1 5 1 1 3 3 3 3 3 3 2 3 6 3 4 5 1 4 5 1 2,(78)</t>
+  </si>
+  <si>
+    <t>Orebro,0 5 1 3 1 5 3 3 3 3 2 2 3 4 1 2 2 3 3 2 6 3 2 3 2 1 5 3,(76)</t>
+  </si>
+  <si>
+    <t>Ostersunds,0 5 2 3 1 2 3 3 4 5 3 1 2 5 3 1 3 1 4 2 3 2 3 7 2 3 3 2,(78)</t>
+  </si>
+  <si>
+    <t>Sirius,2 1 3 2 5 2 4 3 3 4 6 2 3 0 1 2 1 1 3 6 2 4 3 3 1 5 5 6,(83)</t>
+  </si>
+  <si>
+    <t>Varbergs,0 4 4 3 5 4 3 4 2 3 2 2 2 0 1 3 1 3 1 2 3 0 3 2 4 3 0 1,(65)</t>
+  </si>
+  <si>
+    <t>AIK,2-0 2-0 2-0 1-0 2-0 1-1 1-2 2-2 2-1 2-1 2-0 1-1 1-0 1-4 0-1 2-1 2-0 0-0 3-1 1-1 2-1 1-0 1-0 1-0 1-0 1-0 3-0 0-1</t>
+  </si>
+  <si>
+    <t>Degerfors,2-0 0-1 2-3 1-0 2-0 1-1 3-0 0-0 3-1 5-1 0-5 2-0 1-1 3-0 3-0 3-0 0-2 4-1 1-2 3-2 2-1 0-0 2-1 1-2 1-2 0-1 2-0 1-4</t>
+  </si>
+  <si>
+    <t>Djurgarden,0-2 1-0 1-3 3-1 2-0 2-0 2-2 0-0 3-0 0-0 5-1 0-1 2-1 1-4 0-1 0-0 1-0 4-1 1-1 3-2 0-3 1-0 0-3 3-2 3-0 0-1 1-0 1-1</t>
+  </si>
+  <si>
+    <t>Elfsborg,0-2 1-3 1-0 1-0 2-2 0-2 2-3 2-1 1-0 0-1 2-1 3-0 1-1 3-0 0-2 2-2 0-3 4-2 3-1 0-1 4-0 1-0 0-3 3-0 1-2 3-2 0-0 0-1</t>
+  </si>
+  <si>
+    <t>Goteborg,0-0 2-0 2-3 1-1 1-1 0-0 2-2 0-0 0-1 2-3 3-2 2-0 1-2 0-0 2-3 1-2 3-2 2-0 3-1 3-0 0-2 1-0 2-0 1-3 3-0 0-1 0-2 3-3</t>
+  </si>
+  <si>
+    <t>Hacken,1-0 1-2 1-2 1-1 1-1 2-3 1-1 3-1 2-1 2-3 0-1 1-1 2-1 5-0 3-0 2-1 3-2 4-2 0-0 1-1 1-1 1-2 5-0 2-3 1-1 1-4 2-0 2-2</t>
+  </si>
+  <si>
+    <t>Halmstad,1-0 1-0 2-1 1-1 1-0 1-1 2-3 0-0 1-1 0-0 1-1 0-1 1-0 0-0 1-1 2-1 1-0 2-0 0-1 0-0 1-1 1-1 2-1 2-3 1-1 1-0 1-0 0-1</t>
+  </si>
+  <si>
+    <t>Hammarby,3-2 2-0 2-0 1-1 3-2 1-3 2-2 2-1 1-1 5-1 0-2 2-1 1-1 0-0 0-2 2-2 2-1 4-1 1-0 3-0 1-1 3-1 1-0 4-3 0-1 2-0 3-2 1-4</t>
+  </si>
+  <si>
+    <t>Kalmar,0-0 0-1 1-0 1-1 2-2 0-0 3-1 2-1 1-1 2-3 2-0 0-1 1-0 1-2 1-1 0-1 0-3 4-1 0-1 1-1 0-2 3-1 4-0 3-2 2-2 1-4 1-0 1-2</t>
+  </si>
+  <si>
+    <t>Malmo FF,3-2 1-2 1-1 3-1 3-2 1-1 3-1 2-1 1-2 3-2 4-0 0-5 0-2 0-0 2-3 3-0 2-1 1-1 1-1 0-1 5-1 0-1 0-3 1-1 1-0 2-3 0-2 2-2</t>
+  </si>
+  <si>
+    <t>Mjallby,0-0 2-0 1-0 1-0 1-0 1-1 1-1 2-2 2-1 0-1 3-2 0-2 1-0 2-2 0-1 0-0 0-2 0-0 0-0 0-0 4-0 0-1 4-0 1-3 2-2 2-0 2-3 0-2</t>
+  </si>
+  <si>
+    <t>Norrkoping,1-1 1-0 2-1 0-3 2-0 1-1 2-1 1-0 3-2 0-1 0-1 2-1 1-2 1-2 1-2 2-1 3-0 1-1 3-0 2-4 2-1 3-1 5-0 1-0 2-2 3-2 1-0 1-1</t>
+  </si>
+  <si>
+    <t>Orebro,0-0 5-0 1-0 0-3 1-0 2-3 3-0 1-2 3-0 2-1 0-2 1-1 1-2 2-2 1-0 1-1 2-0 0-3 3-0 2-0 5-1 1-2 2-0 1-2 1-1 0-1 3-2 1-2</t>
+  </si>
+  <si>
+    <t>Ostersunds,0-0 5-0 1-1 1-2 1-0 2-0 1-2 3-0 3-1 2-3 3-0 0-1 1-1 5-0 1-2 0-1 3-0 1-0 3-1 2-0 0-3 1-1 0-3 4-3 1-1 3-0 3-0 0-2</t>
+  </si>
+  <si>
+    <t>Sirius,1-1 1-0 1-2 1-1 3-2 0-2 2-2 3-0 2-1 4-0 5-1 2-0 1-2 0-0 0-1 1-1 1-0 1-0 1-2 2-4 1-1 3-1 2-1 3-0 0-1 2-3 2-3 3-3</t>
+  </si>
+  <si>
+    <t>Varbergs,0-0 1-3 1-3 1-2 3-2 1-3 2-1 3-1 1-1 2-1 1-1 2-0 1-1 0-0 1-0 1-2 1-0 0-3 1-0 1-1 2-1 0-0 2-1 1-1 2-2 3-0 0-0 0-1</t>
+  </si>
+  <si>
+    <t>AIK,2 -2 2 1 -2 0 1 0 -1 1 2 0 1 3 1 1 2 0 2 0 -1 1 -1 1 -1 -1 3 1,(16)</t>
+  </si>
+  <si>
+    <t>Degerfors,-2 -1 1 -1 2 0 3 0 2 -4 -5 -2 0 -3 3 -3 -2 -3 -1 -1 1 0 1 1 -1 -1 -2 -3,(-21)</t>
+  </si>
+  <si>
+    <t>Djurgarden,2 1 2 2 -2 2 0 0 3 0 4 1 1 -3 1 0 -1 3 0 1 3 -1 -3 1 -3 1 1 0,(16)</t>
+  </si>
+  <si>
+    <t>Elfsborg,-2 2 1 -1 0 2 -1 -1 1 1 1 3 0 3 2 0 3 2 -2 -1 -4 1 3 3 1 -1 0 1,(17)</t>
+  </si>
+  <si>
+    <t>Goteborg,0 2 -1 0 0 0 0 0 -1 1 1 -2 -1 0 1 -1 -1 2 -2 -3 -2 -1 2 2 3 1 -2 0,(-2)</t>
+  </si>
+  <si>
+    <t>Hacken,-1 -1 -1 0 0 -1 0 2 1 1 1 0 -1 5 -3 -1 1 -2 0 0 0 1 5 -1 0 -3 2 0,(4)</t>
+  </si>
+  <si>
+    <t>Halmstad,1 -1 -1 0 -1 0 1 0 0 0 0 1 -1 0 0 1 -1 -2 -1 0 0 0 -1 1 0 1 -1 -1,(-5)</t>
+  </si>
+  <si>
+    <t>Hammarby,-1 2 -2 0 1 2 0 -1 0 4 2 1 0 0 -2 0 1 -3 1 3 0 -2 1 1 1 -2 1 3,(11)</t>
+  </si>
+  <si>
+    <t>Kalmar,0 1 1 0 0 0 -2 1 0 -1 -2 -1 1 1 0 1 -3 3 1 0 2 2 -4 -1 0 3 1 1,(5)</t>
+  </si>
+  <si>
+    <t>Malmo FF,1 1 0 -2 1 0 2 1 1 -1 4 5 2 0 -1 3 -1 0 0 1 4 -1 3 0 1 1 2 0,(27)</t>
+  </si>
+  <si>
+    <t>Mjallby,0 -2 -1 1 1 0 0 0 -1 -1 -1 -2 -1 0 -1 0 2 0 0 0 4 1 4 -2 0 2 -1 2,(4)</t>
+  </si>
+  <si>
+    <t>Norrkoping,0 -1 1 3 2 0 -1 -1 1 1 -1 -1 1 -1 1 -1 3 0 3 2 1 2 -5 -1 0 1 -1 0,(8)</t>
+  </si>
+  <si>
+    <t>Orebro,0 -5 -1 -3 1 1 -3 -1 -3 -1 -2 0 1 0 -1 0 -2 -3 -3 2 -4 -1 -2 -1 0 -1 -1 -1,(-34)</t>
+  </si>
+  <si>
+    <t>Ostersunds,0 5 0 -1 -1 -2 -1 3 -2 -1 -3 -1 0 -5 -1 -1 -3 -1 2 -2 -3 0 -3 -1 0 -3 -3 -2,(-30)</t>
+  </si>
+  <si>
+    <t>Sirius,0 1 1 0 -1 -2 0 -3 1 -4 -4 2 -1 0 -1 0 1 1 1 -2 0 -2 1 -3 -1 -1 1 0,(-15)</t>
+  </si>
+  <si>
+    <t>Varbergs,0 -2 -2 1 -1 -2 1 -2 0 -1 0 2 0 0 1 1 1 3 -1 0 -1 0 -1 0 0 3 0 -1,(-1)</t>
+  </si>
+  <si>
+    <t>AIK,Degerfors(14) Goteborg(9) Hammarby(5) Elfsborg(4) Norrkoping(7) Malmo FF(1) Ostersunds(16) Mjallby(10) Hacken(8) Varbergs(12) Kalmar(6) Orebro(15) Halmstad(13) Djurgarden(2) Sirius(11) Hacken(8) Orebro(15) Mjallby(10) Goteborg(9) Kalmar(6) Degerfors(14) Djurgarden(2) Hammarby(5) Norrkoping(7) Malmo FF(1) Halmstad(13) Ostersunds(16) Varbergs(12)</t>
+  </si>
+  <si>
+    <t>Degerfors,AIK(3) Kalmar(6) Goteborg(9) Mjallby(10) Djurgarden(2) Norrkoping(7) Orebro(15) Halmstad(13) Ostersunds(16) Hammarby(5) Malmo FF(1) Sirius(11) Varbergs(12) Elfsborg(4) Hacken(8) Malmo FF(1) Mjallby(10) Kalmar(6) Sirius(11) Djurgarden(2) AIK(3) Varbergs(12) Halmstad(13) Orebro(15) Elfsborg(4) Goteborg(9) Hacken(8) Hammarby(5)</t>
+  </si>
+  <si>
+    <t>Djurgarden,Elfsborg(4) Norrkoping(7) Varbergs(12) Malmo FF(1) Degerfors(14) Ostersunds(16) Hammarby(5) Goteborg(9) Orebro(15) Halmstad(13) Sirius(11) Kalmar(6) Hacken(8) AIK(3) Mjallby(10) Mjallby(10) Sirius(11) Hammarby(5) Malmo FF(1) Degerfors(14) Ostersunds(16) AIK(3) Elfsborg(4) Kalmar(6) Goteborg(9) Orebro(15) Halmstad(13) Norrkoping(7)</t>
+  </si>
+  <si>
+    <t>Elfsborg,Djurgarden(2) Varbergs(12) Mjallby(10) AIK(3) Kalmar(6) Sirius(11) Halmstad(13) Malmo FF(1) Norrkoping(7) Goteborg(9) Orebro(15) Ostersunds(16) Hacken(8) Degerfors(14) Hammarby(5) Hammarby(5) Kalmar(6) Hacken(8) Ostersunds(16) Malmo FF(1) Mjallby(10) Goteborg(9) Djurgarden(2) Sirius(11) Degerfors(14) Norrkoping(7) Varbergs(12) Halmstad(13)</t>
+  </si>
+  <si>
+    <t>Goteborg,Orebro(15) AIK(3) Degerfors(14) Halmstad(13) Hacken(8) Kalmar(6) Sirius(11) Djurgarden(2) Elfsborg(4) Ostersunds(16) Mjallby(10) Varbergs(12) Norrkoping(7) Hammarby(5) Malmo FF(1) Varbergs(12) Hacken(8) Halmstad(13) AIK(3) Hammarby(5) Kalmar(6) Elfsborg(4) Orebro(15) Mjallby(10) Djurgarden(2) Degerfors(14) Malmo FF(1) Sirius(11)</t>
+  </si>
+  <si>
+    <t>Hacken,Halmstad(13) Malmo FF(1) Sirius(11) Hammarby(5) Goteborg(9) Orebro(15) Mjallby(10) Varbergs(12) AIK(3) Kalmar(6) Norrkoping(7) Elfsborg(4) Djurgarden(2) Ostersunds(16) Degerfors(14) AIK(3) Goteborg(9) Elfsborg(4) Mjallby(10) Varbergs(12) Hammarby(5) Orebro(15) Norrkoping(7) Halmstad(13) Ostersunds(16) Kalmar(6) Degerfors(14) Malmo FF(1)</t>
+  </si>
+  <si>
+    <t>Halmstad,Hacken(8) Sirius(11) Norrkoping(7) Goteborg(9) Orebro(15) Mjallby(10) Elfsborg(4) Degerfors(14) Hammarby(5) Djurgarden(2) Varbergs(12) Ostersunds(16) AIK(3) Malmo FF(1) Kalmar(6) Norrkoping(7) Varbergs(12) Goteborg(9) Kalmar(6) Mjallby(10) Sirius(11) Ostersunds(16) Degerfors(14) Hacken(8) Orebro(15) AIK(3) Djurgarden(2) Elfsborg(4)</t>
+  </si>
+  <si>
+    <t>Hammarby,Malmo FF(1) Mjallby(10) AIK(3) Hacken(8) Sirius(11) Varbergs(12) Djurgarden(2) Kalmar(6) Halmstad(13) Degerfors(14) Orebro(15) Norrkoping(7) Ostersunds(16) Goteborg(9) Elfsborg(4) Elfsborg(4) Malmo FF(1) Djurgarden(2) Varbergs(12) Goteborg(9) Hacken(8) Norrkoping(7) AIK(3) Ostersunds(16) Sirius(11) Mjallby(10) Orebro(15) Degerfors(14)</t>
+  </si>
+  <si>
+    <t>Kalmar,Ostersunds(16) Degerfors(14) Orebro(15) Sirius(11) Elfsborg(4) Goteborg(9) Malmo FF(1) Hammarby(5) Varbergs(12) Hacken(8) AIK(3) Djurgarden(2) Mjallby(10) Norrkoping(7) Halmstad(13) Ostersunds(16) Elfsborg(4) Degerfors(14) Halmstad(13) AIK(3) Goteborg(9) Sirius(11) Mjallby(10) Djurgarden(2) Varbergs(12) Hacken(8) Norrkoping(7) Orebro(15)</t>
+  </si>
+  <si>
+    <t>Malmo FF,Hammarby(5) Hacken(8) Ostersunds(16) Djurgarden(2) Varbergs(12) AIK(3) Kalmar(6) Elfsborg(4) Orebro(15) Norrkoping(7) Sirius(11) Degerfors(14) Mjallby(10) Halmstad(13) Goteborg(9) Degerfors(14) Hammarby(5) Norrkoping(7) Djurgarden(2) Elfsborg(4) Orebro(15) Mjallby(10) Ostersunds(16) Varbergs(12) AIK(3) Sirius(11) Goteborg(9) Hacken(8)</t>
+  </si>
+  <si>
+    <t>Mjallby,Varbergs(12) Hammarby(5) Elfsborg(4) Degerfors(14) Ostersunds(16) Halmstad(13) Hacken(8) AIK(3) Sirius(11) Norrkoping(7) Goteborg(9) Malmo FF(1) Kalmar(6) Orebro(15) Djurgarden(2) Djurgarden(2) Degerfors(14) AIK(3) Hacken(8) Halmstad(13) Elfsborg(4) Malmo FF(1) Kalmar(6) Goteborg(9) Norrkoping(7) Hammarby(5) Sirius(11) Ostersunds(16)</t>
+  </si>
+  <si>
+    <t>Norrkoping,Sirius(11) Djurgarden(2) Halmstad(13) Orebro(15) AIK(3) Degerfors(14) Varbergs(12) Elfsborg(4) Malmo FF(1) Mjallby(10) Hacken(8) Hammarby(5) Goteborg(9) Kalmar(6) Ostersunds(16) Halmstad(13) Ostersunds(16) Malmo FF(1) Orebro(15) Sirius(11) Varbergs(12) Hammarby(5) Hacken(8) AIK(3) Mjallby(10) Elfsborg(4) Kalmar(6) Djurgarden(2)</t>
+  </si>
+  <si>
+    <t>Orebro,Goteborg(9) Ostersunds(16) Kalmar(6) Norrkoping(7) Halmstad(13) Hacken(8) Degerfors(14) Malmo FF(1) Djurgarden(2) Elfsborg(4) Hammarby(5) AIK(3) Sirius(11) Mjallby(10) Varbergs(12) Sirius(11) AIK(3) Varbergs(12) Norrkoping(7) Ostersunds(16) Malmo FF(1) Hacken(8) Goteborg(9) Degerfors(14) Halmstad(13) Djurgarden(2) Hammarby(5) Kalmar(6)</t>
+  </si>
+  <si>
+    <t>Ostersunds,Kalmar(6) Orebro(15) Malmo FF(1) Varbergs(12) Mjallby(10) Djurgarden(2) AIK(3) Sirius(11) Degerfors(14) Goteborg(9) Elfsborg(4) Halmstad(13) Hammarby(5) Hacken(8) Norrkoping(7) Kalmar(6) Norrkoping(7) Sirius(11) Elfsborg(4) Orebro(15) Djurgarden(2) Halmstad(13) Malmo FF(1) Hammarby(5) Hacken(8) Varbergs(12) AIK(3) Mjallby(10)</t>
+  </si>
+  <si>
+    <t>Sirius,Norrkoping(7) Halmstad(13) Hacken(8) Kalmar(6) Hammarby(5) Elfsborg(4) Goteborg(9) Ostersunds(16) Mjallby(10) Malmo FF(1) Djurgarden(2) Degerfors(14) Orebro(15) Varbergs(12) AIK(3) Orebro(15) Djurgarden(2) Ostersunds(16) Degerfors(14) Norrkoping(7) Halmstad(13) Kalmar(6) Varbergs(12) Elfsborg(4) Hammarby(5) Malmo FF(1) Mjallby(10) Goteborg(9)</t>
+  </si>
+  <si>
+    <t>Varbergs,Mjallby(10) Elfsborg(4) Djurgarden(2) Ostersunds(16) Malmo FF(1) Hammarby(5) Norrkoping(7) Hacken(8) Kalmar(6) AIK(3) Halmstad(13) Goteborg(9) Degerfors(14) Sirius(11) Orebro(15) Goteborg(9) Halmstad(13) Orebro(15) Hammarby(5) Hacken(8) Norrkoping(7) Degerfors(14) Sirius(11) Malmo FF(1) Kalmar(6) Ostersunds(16) Elfsborg(4) AIK(3)</t>
   </si>
   <si>
     <t>swe_division</t>
